--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3673.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3673.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.280805572760239</v>
+        <v>5.737324714660645</v>
       </c>
       <c r="B1">
-        <v>2.079720692033054</v>
+        <v>4.805707931518555</v>
       </c>
       <c r="C1">
-        <v>5.917418674542013</v>
+        <v>3.380240201950073</v>
       </c>
       <c r="D1">
-        <v>3.991685002724358</v>
+        <v>2.008003234863281</v>
       </c>
       <c r="E1">
-        <v>1.097353112476412</v>
+        <v>1.629738450050354</v>
       </c>
     </row>
   </sheetData>
